--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-01-29T18:18:27.804259+00:00</t>
+          <t>Last updated (UTC): 2026-01-29T19:16:38.699344+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>7223.00</t>
         </is>
       </c>
       <c r="F170" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-01-29T19:16:38.699344+00:00</t>
+          <t>Last updated (UTC): 2026-01-29T19:37:35.922935+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,7 +724,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3823.00</t>
+        </is>
+      </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -10816,7 +10820,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>7223.00</t>
+          <t>2499.00</t>
         </is>
       </c>
       <c r="F170" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-01-29T19:37:35.922935+00:00</t>
+          <t>Last updated (UTC): 2026-01-30T08:45:54.378433+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4314.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2548.00</t>
         </is>
       </c>
       <c r="F37" s="15" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>3199.00</t>
         </is>
       </c>
       <c r="F41" s="16" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1908.00</t>
+          <t>828.00</t>
         </is>
       </c>
       <c r="F76" s="7" t="inlineStr">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>4314.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F145" s="7" t="inlineStr">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2548.00</t>
         </is>
       </c>
       <c r="F170" s="15" t="inlineStr">
@@ -11052,7 +11052,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>3199.00</t>
         </is>
       </c>
       <c r="F174" s="16" t="inlineStr">
@@ -13122,7 +13122,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>1908.00</t>
+          <t>828.00</t>
         </is>
       </c>
       <c r="F209" s="7" t="inlineStr">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>4314.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F269" s="7" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2548.00</t>
         </is>
       </c>
       <c r="F277" s="15" t="inlineStr">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>3199.00</t>
         </is>
       </c>
       <c r="F279" s="16" t="inlineStr">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>1908.00</t>
+          <t>828.00</t>
         </is>
       </c>
       <c r="F289" s="7" t="inlineStr">
@@ -19656,7 +19656,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>4314.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F316" s="7" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-01-30T08:45:54.378433+00:00</t>
+          <t>Last updated (UTC): 2026-01-31T08:36:19.095950+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,11 +724,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3823.00</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -1987,7 +1983,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5311.00</t>
+          <t>5202.00</t>
         </is>
       </c>
       <c r="F23" s="7" t="inlineStr">
@@ -2519,7 +2515,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2739.00</t>
         </is>
       </c>
       <c r="F32" s="7" t="inlineStr">
@@ -9976,7 +9972,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5311.00</t>
+          <t>5202.00</t>
         </is>
       </c>
       <c r="F156" s="7" t="inlineStr">
@@ -10515,7 +10511,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2739.00</t>
         </is>
       </c>
       <c r="F165" s="7" t="inlineStr">
@@ -16890,7 +16886,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>5311.00</t>
+          <t>5202.00</t>
         </is>
       </c>
       <c r="F271" s="7" t="inlineStr">
@@ -17070,7 +17066,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2739.00</t>
         </is>
       </c>
       <c r="F274" s="7" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-01-31T08:36:19.095950+00:00</t>
+          <t>Last updated (UTC): 2026-02-01T08:38:23.942724+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4121.00</t>
+          <t>4224.00</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1899.00</t>
+          <t>1849.00</t>
         </is>
       </c>
       <c r="F16" s="7" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2739.00</t>
+          <t>2799.00</t>
         </is>
       </c>
       <c r="F32" s="7" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3199.00</t>
+          <t>3247.00</t>
         </is>
       </c>
       <c r="F41" s="16" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2412.00</t>
+          <t>2529.00</t>
         </is>
       </c>
       <c r="F57" s="15" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4299.00</t>
+          <t>4199.00</t>
         </is>
       </c>
       <c r="F62" s="7" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4905.00</t>
+          <t>4499.00</t>
         </is>
       </c>
       <c r="F72" s="7" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>828.00</t>
+          <t>1812.00</t>
         </is>
       </c>
       <c r="F76" s="7" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3699.00</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="F77" s="7" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2165.00</t>
+          <t>2137.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2287.00</t>
+          <t>2279.00</t>
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2899.00</t>
+          <t>2799.00</t>
         </is>
       </c>
       <c r="F99" s="15" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2500.00</t>
         </is>
       </c>
       <c r="F106" s="15" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2500.00</t>
         </is>
       </c>
       <c r="F107" s="15" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2399.00</t>
+          <t>2229.00</t>
         </is>
       </c>
       <c r="F119" s="24" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3599.00</t>
+          <t>3499.00</t>
         </is>
       </c>
       <c r="F122" s="16" t="inlineStr">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3799.00</t>
+          <t>3399.00</t>
         </is>
       </c>
       <c r="F125" s="7" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3799.00</t>
+          <t>3399.00</t>
         </is>
       </c>
       <c r="F126" s="7" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3799.00</t>
+          <t>3399.00</t>
         </is>
       </c>
       <c r="F127" s="7" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2184.00</t>
         </is>
       </c>
       <c r="F133" s="7" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>4121.00</t>
+          <t>4224.00</t>
         </is>
       </c>
       <c r="F145" s="7" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1899.00</t>
+          <t>1849.00</t>
         </is>
       </c>
       <c r="F149" s="7" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2739.00</t>
+          <t>2799.00</t>
         </is>
       </c>
       <c r="F165" s="7" t="inlineStr">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>3199.00</t>
+          <t>3247.00</t>
         </is>
       </c>
       <c r="F174" s="16" t="inlineStr">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2412.00</t>
+          <t>2529.00</t>
         </is>
       </c>
       <c r="F190" s="15" t="inlineStr">
@@ -12267,7 +12267,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>4299.00</t>
+          <t>4199.00</t>
         </is>
       </c>
       <c r="F195" s="7" t="inlineStr">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>4905.00</t>
+          <t>4499.00</t>
         </is>
       </c>
       <c r="F205" s="7" t="inlineStr">
@@ -13118,7 +13118,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>828.00</t>
+          <t>1812.00</t>
         </is>
       </c>
       <c r="F209" s="7" t="inlineStr">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>3699.00</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="F210" s="7" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2165.00</t>
+          <t>2137.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2287.00</t>
+          <t>2279.00</t>
         </is>
       </c>
       <c r="F226" s="15" t="inlineStr">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>2899.00</t>
+          <t>2799.00</t>
         </is>
       </c>
       <c r="F232" s="15" t="inlineStr">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2500.00</t>
         </is>
       </c>
       <c r="F239" s="15" t="inlineStr">
@@ -15412,7 +15412,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -15658,7 +15658,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>2399.00</t>
+          <t>2229.00</t>
         </is>
       </c>
       <c r="F251" s="24" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>3599.00</t>
+          <t>3499.00</t>
         </is>
       </c>
       <c r="F254" s="16" t="inlineStr">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>3799.00</t>
+          <t>3399.00</t>
         </is>
       </c>
       <c r="F257" s="15" t="inlineStr">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>3799.00</t>
+          <t>3399.00</t>
         </is>
       </c>
       <c r="F258" s="15" t="inlineStr">
@@ -16445,7 +16445,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2184.00</t>
         </is>
       </c>
       <c r="F264" s="15" t="inlineStr">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>4121.00</t>
+          <t>4224.00</t>
         </is>
       </c>
       <c r="F269" s="7" t="inlineStr">
@@ -16826,7 +16826,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>1899.00</t>
+          <t>1849.00</t>
         </is>
       </c>
       <c r="F270" s="7" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>2739.00</t>
+          <t>2799.00</t>
         </is>
       </c>
       <c r="F274" s="7" t="inlineStr">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>3199.00</t>
+          <t>3247.00</t>
         </is>
       </c>
       <c r="F279" s="16" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>2412.00</t>
+          <t>2529.00</t>
         </is>
       </c>
       <c r="F284" s="15" t="inlineStr">
@@ -17792,7 +17792,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>4299.00</t>
+          <t>4199.00</t>
         </is>
       </c>
       <c r="F286" s="7" t="inlineStr">
@@ -17913,7 +17913,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>4905.00</t>
+          <t>4499.00</t>
         </is>
       </c>
       <c r="F288" s="7" t="inlineStr">
@@ -17979,7 +17979,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>828.00</t>
+          <t>1812.00</t>
         </is>
       </c>
       <c r="F289" s="7" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>3699.00</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="F290" s="7" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2165.00</t>
+          <t>2137.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18345,7 +18345,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>2287.00</t>
+          <t>2279.00</t>
         </is>
       </c>
       <c r="F295" s="15" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>2899.00</t>
+          <t>2799.00</t>
         </is>
       </c>
       <c r="F297" s="15" t="inlineStr">
@@ -18590,7 +18590,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2500.00</t>
         </is>
       </c>
       <c r="F299" s="15" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -18784,7 +18784,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>2399.00</t>
+          <t>2229.00</t>
         </is>
       </c>
       <c r="F302" s="24" t="inlineStr">
@@ -18845,7 +18845,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>3599.00</t>
+          <t>3499.00</t>
         </is>
       </c>
       <c r="F303" s="16" t="inlineStr">
@@ -18970,7 +18970,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>3799.00</t>
+          <t>3399.00</t>
         </is>
       </c>
       <c r="F305" s="15" t="inlineStr">
@@ -19034,7 +19034,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>3799.00</t>
+          <t>3399.00</t>
         </is>
       </c>
       <c r="F306" s="15" t="inlineStr">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2184.00</t>
         </is>
       </c>
       <c r="F307" s="15" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>4121.00</t>
+          <t>4224.00</t>
         </is>
       </c>
       <c r="F316" s="7" t="inlineStr">
@@ -19880,7 +19880,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>1899.00</t>
+          <t>1849.00</t>
         </is>
       </c>
       <c r="F320" s="7" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-01T08:38:23.942724+00:00</t>
+          <t>Last updated (UTC): 2026-02-02T08:51:48.044136+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3699.00</t>
+          <t>3498.00</t>
         </is>
       </c>
       <c r="F46" s="7" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2137.00</t>
+          <t>2112.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2279.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1799.00</t>
+          <t>2499.00</t>
         </is>
       </c>
       <c r="F108" s="15" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>2184.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>2184.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>3699.00</t>
+          <t>3498.00</t>
         </is>
       </c>
       <c r="F179" s="7" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2137.00</t>
+          <t>2112.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2279.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F226" s="15" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>1799.00</t>
+          <t>2499.00</t>
         </is>
       </c>
       <c r="F240" s="15" t="inlineStr">
@@ -15412,7 +15412,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>2184.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>2184.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>3699.00</t>
+          <t>3498.00</t>
         </is>
       </c>
       <c r="F282" s="7" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2137.00</t>
+          <t>2112.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18345,7 +18345,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>2279.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F295" s="15" t="inlineStr">
@@ -18657,7 +18657,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>1799.00</t>
+          <t>2499.00</t>
         </is>
       </c>
       <c r="F300" s="15" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>2184.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>2184.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-02T08:51:48.044136+00:00</t>
+          <t>Last updated (UTC): 2026-02-03T08:44:00.823713+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2649.00</t>
+          <t>2899.00</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3498.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F46" s="7" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2112.00</t>
+          <t>2094.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2500.00</t>
+          <t>2495.00</t>
         </is>
       </c>
       <c r="F106" s="15" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2500.00</t>
+          <t>2495.00</t>
         </is>
       </c>
       <c r="F107" s="15" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2649.00</t>
+          <t>2899.00</t>
         </is>
       </c>
       <c r="F166" s="7" t="inlineStr">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>3498.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F179" s="7" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2112.00</t>
+          <t>2094.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>2500.00</t>
+          <t>2495.00</t>
         </is>
       </c>
       <c r="F239" s="15" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2649.00</t>
+          <t>2899.00</t>
         </is>
       </c>
       <c r="F275" s="7" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>3498.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F282" s="7" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2112.00</t>
+          <t>2094.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18590,7 +18590,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>2500.00</t>
+          <t>2495.00</t>
         </is>
       </c>
       <c r="F299" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-03T08:44:00.823713+00:00</t>
+          <t>Last updated (UTC): 2026-02-04T08:50:52.409658+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2899.00</t>
+          <t>2699.00</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>3699.00</t>
         </is>
       </c>
       <c r="F46" s="7" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2094.00</t>
+          <t>2108.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F108" s="15" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2899.00</t>
+          <t>2699.00</t>
         </is>
       </c>
       <c r="F166" s="7" t="inlineStr">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>3699.00</t>
         </is>
       </c>
       <c r="F179" s="7" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2094.00</t>
+          <t>2108.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F240" s="15" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2899.00</t>
+          <t>2699.00</t>
         </is>
       </c>
       <c r="F275" s="7" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>3699.00</t>
         </is>
       </c>
       <c r="F282" s="7" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2094.00</t>
+          <t>2108.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18657,7 +18657,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F300" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-04T08:50:52.409658+00:00</t>
+          <t>Last updated (UTC): 2026-02-05T08:52:04.803183+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-05T08:52:04.803183+00:00</t>
+          <t>Last updated (UTC): 2026-02-06T08:51:03.103590+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,7 +724,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3823.00</t>
+        </is>
+      </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -1579,7 +1583,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1849.00</t>
+          <t>1899.00</t>
         </is>
       </c>
       <c r="F16" s="7" t="inlineStr">
@@ -1983,7 +1987,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5202.00</t>
+          <t>5200.00</t>
         </is>
       </c>
       <c r="F23" s="7" t="inlineStr">
@@ -2515,7 +2519,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F32" s="7" t="inlineStr">
@@ -6220,7 +6224,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1629.00</t>
+          <t>1579.00</t>
         </is>
       </c>
       <c r="F94" s="15" t="inlineStr">
@@ -9562,7 +9566,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1849.00</t>
+          <t>1899.00</t>
         </is>
       </c>
       <c r="F149" s="7" t="inlineStr">
@@ -9972,7 +9976,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5202.00</t>
+          <t>5200.00</t>
         </is>
       </c>
       <c r="F156" s="7" t="inlineStr">
@@ -10511,7 +10515,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F165" s="7" t="inlineStr">
@@ -14206,7 +14210,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1629.00</t>
+          <t>1579.00</t>
         </is>
       </c>
       <c r="F227" s="15" t="inlineStr">
@@ -16826,7 +16830,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>1849.00</t>
+          <t>1899.00</t>
         </is>
       </c>
       <c r="F270" s="7" t="inlineStr">
@@ -16886,7 +16890,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>5202.00</t>
+          <t>5200.00</t>
         </is>
       </c>
       <c r="F271" s="7" t="inlineStr">
@@ -17066,7 +17070,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F274" s="7" t="inlineStr">
@@ -18405,7 +18409,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>1629.00</t>
+          <t>1579.00</t>
         </is>
       </c>
       <c r="F296" s="15" t="inlineStr">
@@ -19880,7 +19884,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>1849.00</t>
+          <t>1899.00</t>
         </is>
       </c>
       <c r="F320" s="7" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-06T08:51:03.103590+00:00</t>
+          <t>Last updated (UTC): 2026-02-07T08:38:00.671424+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,11 +724,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3823.00</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -1356,7 +1352,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4224.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
@@ -5380,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2108.00</t>
+          <t>2137.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -9338,7 +9334,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>4224.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F145" s="7" t="inlineStr">
@@ -13364,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2108.00</t>
+          <t>2137.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -16770,7 +16766,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>4224.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F269" s="7" t="inlineStr">
@@ -18103,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2108.00</t>
+          <t>2137.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -19656,7 +19652,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>4224.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F316" s="7" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-07T08:38:00.671424+00:00</t>
+          <t>Last updated (UTC): 2026-02-08T08:38:39.337413+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3247.00</t>
+          <t>3427.00</t>
         </is>
       </c>
       <c r="F41" s="16" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2529.00</t>
+          <t>2539.00</t>
         </is>
       </c>
       <c r="F57" s="15" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2499.00</t>
         </is>
       </c>
       <c r="F108" s="15" t="inlineStr">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>3247.00</t>
+          <t>3427.00</t>
         </is>
       </c>
       <c r="F174" s="16" t="inlineStr">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2529.00</t>
+          <t>2539.00</t>
         </is>
       </c>
       <c r="F190" s="15" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2499.00</t>
         </is>
       </c>
       <c r="F240" s="15" t="inlineStr">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>3247.00</t>
+          <t>3427.00</t>
         </is>
       </c>
       <c r="F279" s="16" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>2529.00</t>
+          <t>2539.00</t>
         </is>
       </c>
       <c r="F284" s="15" t="inlineStr">
@@ -18657,7 +18657,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2499.00</t>
         </is>
       </c>
       <c r="F300" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-08T08:38:39.337413+00:00</t>
+          <t>Last updated (UTC): 2026-02-09T08:59:33.393682+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5200.00</t>
+          <t>2491.00</t>
         </is>
       </c>
       <c r="F23" s="7" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>3099.00</t>
         </is>
       </c>
       <c r="F32" s="7" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2699.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1812.00</t>
+          <t>1908.00</t>
         </is>
       </c>
       <c r="F76" s="7" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>3688.00</t>
         </is>
       </c>
       <c r="F77" s="7" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2137.00</t>
+          <t>2160.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1579.00</t>
+          <t>1699.00</t>
         </is>
       </c>
       <c r="F94" s="15" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2184.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2229.00</t>
+          <t>2399.00</t>
         </is>
       </c>
       <c r="F119" s="24" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2184.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F133" s="7" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2184.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5200.00</t>
+          <t>2491.00</t>
         </is>
       </c>
       <c r="F156" s="7" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>3099.00</t>
         </is>
       </c>
       <c r="F165" s="7" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2699.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F166" s="7" t="inlineStr">
@@ -13118,7 +13118,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>1812.00</t>
+          <t>1908.00</t>
         </is>
       </c>
       <c r="F209" s="7" t="inlineStr">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>3688.00</t>
         </is>
       </c>
       <c r="F210" s="7" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2137.00</t>
+          <t>2160.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1579.00</t>
+          <t>1699.00</t>
         </is>
       </c>
       <c r="F227" s="15" t="inlineStr">
@@ -15412,7 +15412,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2184.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -15658,7 +15658,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>2229.00</t>
+          <t>2399.00</t>
         </is>
       </c>
       <c r="F251" s="24" t="inlineStr">
@@ -16445,7 +16445,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>2184.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F264" s="15" t="inlineStr">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2184.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -16886,7 +16886,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>5200.00</t>
+          <t>2491.00</t>
         </is>
       </c>
       <c r="F271" s="7" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>3099.00</t>
         </is>
       </c>
       <c r="F274" s="7" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2699.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F275" s="7" t="inlineStr">
@@ -17979,7 +17979,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>1812.00</t>
+          <t>1908.00</t>
         </is>
       </c>
       <c r="F289" s="7" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>3688.00</t>
         </is>
       </c>
       <c r="F290" s="7" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2137.00</t>
+          <t>2160.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>1579.00</t>
+          <t>1699.00</t>
         </is>
       </c>
       <c r="F296" s="15" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2184.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -18784,7 +18784,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>2229.00</t>
+          <t>2399.00</t>
         </is>
       </c>
       <c r="F302" s="24" t="inlineStr">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>2184.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F307" s="15" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2184.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-09T08:59:33.393682+00:00</t>
+          <t>Last updated (UTC): 2026-02-10T09:01:24.443408+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4121.00</t>
+          <t>4725.00</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2491.00</t>
+          <t>5311.00</t>
         </is>
       </c>
       <c r="F23" s="7" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>2699.00</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3399.00</t>
+          <t>3499.00</t>
         </is>
       </c>
       <c r="F39" s="7" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2599.00</t>
         </is>
       </c>
       <c r="F56" s="15" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4199.00</t>
+          <t>4399.00</t>
         </is>
       </c>
       <c r="F62" s="7" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3688.00</t>
+          <t>3699.00</t>
         </is>
       </c>
       <c r="F77" s="7" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2160.00</t>
+          <t>2153.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2949.00</t>
         </is>
       </c>
       <c r="F99" s="15" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3499.00</t>
+          <t>3699.00</t>
         </is>
       </c>
       <c r="F122" s="16" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>4121.00</t>
+          <t>4725.00</t>
         </is>
       </c>
       <c r="F145" s="7" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2491.00</t>
+          <t>5311.00</t>
         </is>
       </c>
       <c r="F156" s="7" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>2699.00</t>
         </is>
       </c>
       <c r="F166" s="7" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>3399.00</t>
+          <t>3499.00</t>
         </is>
       </c>
       <c r="F172" s="7" t="inlineStr">
@@ -11924,7 +11924,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2599.00</t>
         </is>
       </c>
       <c r="F189" s="15" t="inlineStr">
@@ -12267,7 +12267,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>4199.00</t>
+          <t>4399.00</t>
         </is>
       </c>
       <c r="F195" s="7" t="inlineStr">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>3688.00</t>
+          <t>3699.00</t>
         </is>
       </c>
       <c r="F210" s="7" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2160.00</t>
+          <t>2153.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2949.00</t>
         </is>
       </c>
       <c r="F232" s="15" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>3499.00</t>
+          <t>3699.00</t>
         </is>
       </c>
       <c r="F254" s="16" t="inlineStr">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>4121.00</t>
+          <t>4725.00</t>
         </is>
       </c>
       <c r="F269" s="7" t="inlineStr">
@@ -16886,7 +16886,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>2491.00</t>
+          <t>5311.00</t>
         </is>
       </c>
       <c r="F271" s="7" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>2699.00</t>
         </is>
       </c>
       <c r="F275" s="7" t="inlineStr">
@@ -17310,7 +17310,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>3399.00</t>
+          <t>3499.00</t>
         </is>
       </c>
       <c r="F278" s="7" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>2499.00</t>
+          <t>2599.00</t>
         </is>
       </c>
       <c r="F283" s="15" t="inlineStr">
@@ -17792,7 +17792,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>4199.00</t>
+          <t>4399.00</t>
         </is>
       </c>
       <c r="F286" s="7" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>3688.00</t>
+          <t>3699.00</t>
         </is>
       </c>
       <c r="F290" s="7" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2160.00</t>
+          <t>2153.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2949.00</t>
         </is>
       </c>
       <c r="F297" s="15" t="inlineStr">
@@ -18845,7 +18845,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>3499.00</t>
+          <t>3699.00</t>
         </is>
       </c>
       <c r="F303" s="16" t="inlineStr">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>4121.00</t>
+          <t>4725.00</t>
         </is>
       </c>
       <c r="F316" s="7" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-10T09:01:24.443408+00:00</t>
+          <t>Last updated (UTC): 2026-02-11T08:55:33.856523+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,7 +724,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3823.00</t>
+        </is>
+      </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -1352,7 +1356,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4725.00</t>
+          <t>3379.00</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
@@ -3051,7 +3055,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3427.00</t>
+          <t>3379.00</t>
         </is>
       </c>
       <c r="F41" s="16" t="inlineStr">
@@ -5376,7 +5380,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2153.00</t>
+          <t>2157.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -7492,7 +7496,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2260.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -8649,7 +8653,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2260.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -9334,7 +9338,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>4725.00</t>
+          <t>3379.00</t>
         </is>
       </c>
       <c r="F145" s="7" t="inlineStr">
@@ -11048,7 +11052,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>3427.00</t>
+          <t>3379.00</t>
         </is>
       </c>
       <c r="F174" s="16" t="inlineStr">
@@ -13360,7 +13364,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2153.00</t>
+          <t>2157.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -15412,7 +15416,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2260.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -16505,7 +16509,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2260.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -16764,11 +16768,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>4725.00</t>
-        </is>
-      </c>
+      <c r="E269" t="inlineStr"/>
       <c r="F269" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -17370,7 +17370,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>3427.00</t>
+          <t>3379.00</t>
         </is>
       </c>
       <c r="F279" s="16" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2153.00</t>
+          <t>2157.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2260.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2299.00</t>
+          <t>2260.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">
@@ -19650,11 +19650,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>4725.00</t>
-        </is>
-      </c>
+      <c r="E316" t="inlineStr"/>
       <c r="F316" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-11T08:55:33.856523+00:00</t>
+          <t>Last updated (UTC): 2026-02-12T08:54:42.832108+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,11 +724,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3823.00</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -1356,7 +1352,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>4315.00</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
@@ -2581,7 +2577,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2699.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
@@ -7496,7 +7492,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2260.00</t>
+          <t>2221.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -8653,7 +8649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2260.00</t>
+          <t>2221.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -9338,7 +9334,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>4315.00</t>
         </is>
       </c>
       <c r="F145" s="7" t="inlineStr">
@@ -10577,7 +10573,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2699.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F166" s="7" t="inlineStr">
@@ -15416,7 +15412,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2260.00</t>
+          <t>2221.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -16509,7 +16505,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2260.00</t>
+          <t>2221.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -16768,7 +16764,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>4315.00</t>
+        </is>
+      </c>
       <c r="F269" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -17128,7 +17128,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2699.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F275" s="7" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2260.00</t>
+          <t>2221.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2260.00</t>
+          <t>2221.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">
@@ -19650,7 +19650,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr"/>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>4315.00</t>
+        </is>
+      </c>
       <c r="F316" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-12T08:54:42.832108+00:00</t>
+          <t>Last updated (UTC): 2026-02-13T08:51:06.223248+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2157.00</t>
+          <t>2160.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2221.00</t>
+          <t>2233.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2221.00</t>
+          <t>2233.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2157.00</t>
+          <t>2160.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -15412,7 +15412,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2221.00</t>
+          <t>2233.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2221.00</t>
+          <t>2233.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2157.00</t>
+          <t>2160.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2221.00</t>
+          <t>2233.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2221.00</t>
+          <t>2233.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-13T08:51:06.223248+00:00</t>
+          <t>Last updated (UTC): 2026-02-14T08:38:18.089076+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,7 +724,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3822.00</t>
+        </is>
+      </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -789,7 +793,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3823.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F3" s="7" t="inlineStr">
@@ -1352,7 +1356,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4315.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
@@ -2760,7 +2764,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3398.00</t>
+          <t>3397.00</t>
         </is>
       </c>
       <c r="F36" s="7" t="inlineStr">
@@ -2820,7 +2824,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2548.00</t>
+          <t>2547.00</t>
         </is>
       </c>
       <c r="F37" s="15" t="inlineStr">
@@ -5376,7 +5380,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2160.00</t>
+          <t>2163.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -7492,7 +7496,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2233.00</t>
+          <t>2269.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -8102,7 +8106,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3399.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F125" s="7" t="inlineStr">
@@ -8166,7 +8170,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3399.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F126" s="7" t="inlineStr">
@@ -8649,7 +8653,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2233.00</t>
+          <t>2269.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -8712,7 +8716,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3823.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F135" s="7" t="inlineStr">
@@ -8779,7 +8783,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3823.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F136" s="7" t="inlineStr">
@@ -9334,7 +9338,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>4315.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F145" s="7" t="inlineStr">
@@ -10756,7 +10760,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>3398.00</t>
+          <t>3397.00</t>
         </is>
       </c>
       <c r="F169" s="7" t="inlineStr">
@@ -10816,7 +10820,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2548.00</t>
+          <t>2547.00</t>
         </is>
       </c>
       <c r="F170" s="15" t="inlineStr">
@@ -13360,7 +13364,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2160.00</t>
+          <t>2163.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -15412,7 +15416,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2233.00</t>
+          <t>2269.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -16021,7 +16025,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>3399.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F257" s="15" t="inlineStr">
@@ -16505,7 +16509,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2233.00</t>
+          <t>2269.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -16568,7 +16572,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>3823.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F266" s="7" t="inlineStr">
@@ -16635,7 +16639,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>3823.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F267" s="7" t="inlineStr">
@@ -16766,7 +16770,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>4315.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F269" s="7" t="inlineStr">
@@ -17190,7 +17194,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>3398.00</t>
+          <t>3397.00</t>
         </is>
       </c>
       <c r="F276" s="7" t="inlineStr">
@@ -17250,7 +17254,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>2548.00</t>
+          <t>2547.00</t>
         </is>
       </c>
       <c r="F277" s="15" t="inlineStr">
@@ -18099,7 +18103,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2160.00</t>
+          <t>2163.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18721,7 +18725,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2233.00</t>
+          <t>2269.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -18970,7 +18974,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>3399.00</t>
+          <t>2999.00</t>
         </is>
       </c>
       <c r="F305" s="15" t="inlineStr">
@@ -19158,7 +19162,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2233.00</t>
+          <t>2269.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">
@@ -19652,7 +19656,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>4315.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F316" s="7" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-14T08:38:18.089076+00:00</t>
+          <t>Last updated (UTC): 2026-02-15T08:38:54.165773+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,11 +724,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3822.00</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -5380,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2163.00</t>
+          <t>2155.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -7496,7 +7492,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2269.00</t>
+          <t>2266.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -8106,7 +8102,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>3799.00</t>
         </is>
       </c>
       <c r="F125" s="7" t="inlineStr">
@@ -8170,7 +8166,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>3799.00</t>
         </is>
       </c>
       <c r="F126" s="7" t="inlineStr">
@@ -8653,7 +8649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2269.00</t>
+          <t>2266.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -13364,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2163.00</t>
+          <t>2155.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -15416,7 +15412,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2269.00</t>
+          <t>2266.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -16025,7 +16021,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>3799.00</t>
         </is>
       </c>
       <c r="F257" s="15" t="inlineStr">
@@ -16509,7 +16505,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2269.00</t>
+          <t>2266.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -18103,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2163.00</t>
+          <t>2155.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18725,7 +18721,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2269.00</t>
+          <t>2266.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -18974,7 +18970,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>3799.00</t>
         </is>
       </c>
       <c r="F305" s="15" t="inlineStr">
@@ -19162,7 +19158,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2269.00</t>
+          <t>2266.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-15T08:38:54.165773+00:00</t>
+          <t>Last updated (UTC): 2026-02-16T08:55:47.958261+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,7 +724,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4273.00</t>
+        </is>
+      </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -789,7 +793,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3822.00</t>
+          <t>4273.00</t>
         </is>
       </c>
       <c r="F3" s="7" t="inlineStr">
@@ -2515,7 +2519,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3099.00</t>
+          <t>2899.00</t>
         </is>
       </c>
       <c r="F32" s="7" t="inlineStr">
@@ -2577,7 +2581,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>2799.00</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
@@ -2760,7 +2764,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3397.00</t>
+          <t>3798.00</t>
         </is>
       </c>
       <c r="F36" s="7" t="inlineStr">
@@ -2820,7 +2824,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2547.00</t>
+          <t>2848.00</t>
         </is>
       </c>
       <c r="F37" s="15" t="inlineStr">
@@ -5376,7 +5380,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2155.00</t>
+          <t>2162.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -7492,7 +7496,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2266.00</t>
+          <t>2293.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -8649,7 +8653,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2266.00</t>
+          <t>2293.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -8712,7 +8716,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3822.00</t>
+          <t>4273.00</t>
         </is>
       </c>
       <c r="F135" s="7" t="inlineStr">
@@ -8779,7 +8783,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3822.00</t>
+          <t>4273.00</t>
         </is>
       </c>
       <c r="F136" s="7" t="inlineStr">
@@ -10511,7 +10515,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>3099.00</t>
+          <t>2899.00</t>
         </is>
       </c>
       <c r="F165" s="7" t="inlineStr">
@@ -10573,7 +10577,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>2799.00</t>
         </is>
       </c>
       <c r="F166" s="7" t="inlineStr">
@@ -10756,7 +10760,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>3397.00</t>
+          <t>3798.00</t>
         </is>
       </c>
       <c r="F169" s="7" t="inlineStr">
@@ -10816,7 +10820,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2547.00</t>
+          <t>2848.00</t>
         </is>
       </c>
       <c r="F170" s="15" t="inlineStr">
@@ -13360,7 +13364,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2155.00</t>
+          <t>2162.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -15412,7 +15416,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2266.00</t>
+          <t>2293.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -16505,7 +16509,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2266.00</t>
+          <t>2293.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -16568,7 +16572,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>3822.00</t>
+          <t>4273.00</t>
         </is>
       </c>
       <c r="F266" s="7" t="inlineStr">
@@ -16635,7 +16639,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>3822.00</t>
+          <t>4273.00</t>
         </is>
       </c>
       <c r="F267" s="7" t="inlineStr">
@@ -17066,7 +17070,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>3099.00</t>
+          <t>2899.00</t>
         </is>
       </c>
       <c r="F274" s="7" t="inlineStr">
@@ -17128,7 +17132,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2999.00</t>
+          <t>2799.00</t>
         </is>
       </c>
       <c r="F275" s="7" t="inlineStr">
@@ -17190,7 +17194,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>3397.00</t>
+          <t>3798.00</t>
         </is>
       </c>
       <c r="F276" s="7" t="inlineStr">
@@ -17250,7 +17254,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>2547.00</t>
+          <t>2848.00</t>
         </is>
       </c>
       <c r="F277" s="15" t="inlineStr">
@@ -18099,7 +18103,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2155.00</t>
+          <t>2162.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18721,7 +18725,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2266.00</t>
+          <t>2293.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -19158,7 +19162,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2266.00</t>
+          <t>2293.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-16T08:55:47.958261+00:00</t>
+          <t>Last updated (UTC): 2026-02-17T08:53:34.253151+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4273.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4273.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F3" s="7" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2924.00</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3798.00</t>
+          <t>3397.00</t>
         </is>
       </c>
       <c r="F36" s="7" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2848.00</t>
+          <t>2547.00</t>
         </is>
       </c>
       <c r="F37" s="15" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>3427.00</t>
         </is>
       </c>
       <c r="F41" s="16" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2162.00</t>
+          <t>2165.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>2093.00</t>
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2495.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F106" s="15" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2495.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F107" s="15" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2293.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F115" s="15" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2293.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F134" s="15" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4273.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F135" s="7" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>4273.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F136" s="7" t="inlineStr">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2924.00</t>
         </is>
       </c>
       <c r="F166" s="7" t="inlineStr">
@@ -10760,7 +10760,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>3798.00</t>
+          <t>3397.00</t>
         </is>
       </c>
       <c r="F169" s="7" t="inlineStr">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2848.00</t>
+          <t>2547.00</t>
         </is>
       </c>
       <c r="F170" s="15" t="inlineStr">
@@ -11052,7 +11052,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>3427.00</t>
         </is>
       </c>
       <c r="F174" s="16" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2162.00</t>
+          <t>2165.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -14150,7 +14150,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>2093.00</t>
         </is>
       </c>
       <c r="F226" s="15" t="inlineStr">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>2495.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F239" s="15" t="inlineStr">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2293.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F247" s="15" t="inlineStr">
@@ -16509,7 +16509,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2293.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F265" s="15" t="inlineStr">
@@ -16572,7 +16572,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>4273.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F266" s="7" t="inlineStr">
@@ -16639,7 +16639,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>4273.00</t>
+          <t>3822.00</t>
         </is>
       </c>
       <c r="F267" s="7" t="inlineStr">
@@ -17132,7 +17132,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2799.00</t>
+          <t>2924.00</t>
         </is>
       </c>
       <c r="F275" s="7" t="inlineStr">
@@ -17194,7 +17194,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>3798.00</t>
+          <t>3397.00</t>
         </is>
       </c>
       <c r="F276" s="7" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>2848.00</t>
+          <t>2547.00</t>
         </is>
       </c>
       <c r="F277" s="15" t="inlineStr">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>3427.00</t>
         </is>
       </c>
       <c r="F279" s="16" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2162.00</t>
+          <t>2165.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18349,7 +18349,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>2093.00</t>
         </is>
       </c>
       <c r="F295" s="15" t="inlineStr">
@@ -18594,7 +18594,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>2495.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F299" s="15" t="inlineStr">
@@ -18725,7 +18725,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2293.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F301" s="15" t="inlineStr">
@@ -19162,7 +19162,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2293.00</t>
+          <t>2299.00</t>
         </is>
       </c>
       <c r="F308" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-17T08:53:34.253151+00:00</t>
+          <t>Last updated (UTC): 2026-02-18T08:53:15.241217+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3427.00</t>
+          <t>3379.00</t>
         </is>
       </c>
       <c r="F41" s="16" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2093.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr">
@@ -11052,7 +11052,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>3427.00</t>
+          <t>3379.00</t>
         </is>
       </c>
       <c r="F174" s="16" t="inlineStr">
@@ -14150,7 +14150,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2093.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F226" s="15" t="inlineStr">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>3427.00</t>
+          <t>3379.00</t>
         </is>
       </c>
       <c r="F279" s="16" t="inlineStr">
@@ -18349,7 +18349,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>2093.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F295" s="15" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-18T08:53:15.241217+00:00</t>
+          <t>Last updated (UTC): 2026-02-19T08:52:32.231996+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,11 +724,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3822.00</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -2519,7 +2515,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2899.00</t>
+          <t>3099.00</t>
         </is>
       </c>
       <c r="F32" s="7" t="inlineStr">
@@ -6164,7 +6160,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>1338.00</t>
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr">
@@ -10515,7 +10511,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2899.00</t>
+          <t>3099.00</t>
         </is>
       </c>
       <c r="F165" s="7" t="inlineStr">
@@ -14150,7 +14146,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>1338.00</t>
         </is>
       </c>
       <c r="F226" s="15" t="inlineStr">
@@ -17070,7 +17066,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>2899.00</t>
+          <t>3099.00</t>
         </is>
       </c>
       <c r="F274" s="7" t="inlineStr">
@@ -18347,11 +18343,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>1948.00</t>
-        </is>
-      </c>
+      <c r="E295" t="inlineStr"/>
       <c r="F295" s="15" t="inlineStr">
         <is>
           <t>Chocolate</t>

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-19T08:52:32.231996+00:00</t>
+          <t>Last updated (UTC): 2026-02-20T08:49:17.988173+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,7 +724,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3822.00</t>
+        </is>
+      </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>3427.00</t>
         </is>
       </c>
       <c r="F41" s="16" t="inlineStr">
@@ -4001,7 +4005,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2539.00</t>
+          <t>2554.00</t>
         </is>
       </c>
       <c r="F57" s="15" t="inlineStr">
@@ -5376,7 +5380,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2165.00</t>
+          <t>2151.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -6160,7 +6164,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1338.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr">
@@ -9332,11 +9336,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>4121.00</t>
-        </is>
-      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>3427.00</t>
         </is>
       </c>
       <c r="F174" s="16" t="inlineStr">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2539.00</t>
+          <t>2554.00</t>
         </is>
       </c>
       <c r="F190" s="15" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2165.00</t>
+          <t>2151.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>1338.00</t>
+          <t>1948.00</t>
         </is>
       </c>
       <c r="F226" s="15" t="inlineStr">
@@ -16764,11 +16764,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>4121.00</t>
-        </is>
-      </c>
+      <c r="E269" t="inlineStr"/>
       <c r="F269" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -17370,7 +17366,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>3379.00</t>
+          <t>3427.00</t>
         </is>
       </c>
       <c r="F279" s="16" t="inlineStr">
@@ -17671,7 +17667,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>2539.00</t>
+          <t>2554.00</t>
         </is>
       </c>
       <c r="F284" s="15" t="inlineStr">
@@ -18099,7 +18095,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2165.00</t>
+          <t>2151.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18343,7 +18339,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>1948.00</t>
+        </is>
+      </c>
       <c r="F295" s="15" t="inlineStr">
         <is>
           <t>Chocolate</t>
@@ -19648,7 +19648,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>4121.00</t>
+          <t>4725.00</t>
         </is>
       </c>
       <c r="F316" s="7" t="inlineStr">

--- a/data/output/price_output.xlsx
+++ b/data/output/price_output.xlsx
@@ -634,7 +634,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Last updated (UTC): 2026-02-20T08:49:17.988173+00:00</t>
+          <t>Last updated (UTC): 2026-02-21T08:36:54.640608+00:00</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -724,11 +724,7 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3822.00</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -2581,7 +2577,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2924.00</t>
+          <t>2974.00</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
@@ -5380,7 +5376,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2151.00</t>
+          <t>2163.00</t>
         </is>
       </c>
       <c r="F80" s="15" t="inlineStr">
@@ -6164,7 +6160,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>1919.00</t>
         </is>
       </c>
       <c r="F93" s="15" t="inlineStr">
@@ -9336,7 +9332,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>4121.00</t>
+        </is>
+      </c>
       <c r="F145" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2924.00</t>
+          <t>2974.00</t>
         </is>
       </c>
       <c r="F166" s="7" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2151.00</t>
+          <t>2163.00</t>
         </is>
       </c>
       <c r="F213" s="15" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>1919.00</t>
         </is>
       </c>
       <c r="F226" s="15" t="inlineStr">
@@ -16764,7 +16764,11 @@
           <t>1kg</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>4121.00</t>
+        </is>
+      </c>
       <c r="F269" s="7" t="inlineStr">
         <is>
           <t>Unflavoured</t>
@@ -17124,7 +17128,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2924.00</t>
+          <t>2974.00</t>
         </is>
       </c>
       <c r="F275" s="7" t="inlineStr">
@@ -18095,7 +18099,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2151.00</t>
+          <t>2163.00</t>
         </is>
       </c>
       <c r="F291" s="15" t="inlineStr">
@@ -18341,7 +18345,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>1948.00</t>
+          <t>1919.00</t>
         </is>
       </c>
       <c r="F295" s="15" t="inlineStr">
@@ -19648,7 +19652,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>4725.00</t>
+          <t>4121.00</t>
         </is>
       </c>
       <c r="F316" s="7" t="inlineStr">
